--- a/data/trans_orig/Cage-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{369050B7-142F-4E56-AD10-9C96DB3DBCC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D65C52B3-788B-4E16-83E6-059AE732B620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AABDF22B-AF91-4587-9B40-E4C8A2DE7D47}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B569CCCF-D1C2-449E-876D-D39B3808F585}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="271">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,93%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -98,772 +98,757 @@
     <t>0,04%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>Consumo perjudicial</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>Consumo perjudicial</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
+    <t>97,31%</t>
+  </si>
+  <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>97,34%</t>
+    <t>97,42%</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -1278,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48BB20B-9A08-44CF-9F79-C1204221EB2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BDD9F7-8323-47B2-9093-A80C5008FDA4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1591,7 +1576,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,13 +1591,13 @@
         <v>1031723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>1291</v>
@@ -1621,13 +1606,13 @@
         <v>1315113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>2329</v>
@@ -1636,18 +1621,18 @@
         <v>2346836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1665,7 +1650,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1746,7 +1731,7 @@
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1746,13 @@
         <v>9229</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1776,13 +1761,13 @@
         <v>2119</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -1791,13 +1776,13 @@
         <v>11348</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1797,13 @@
         <v>1679710</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>1550</v>
@@ -1827,7 +1812,7 @@
         <v>1583548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>65</v>
@@ -1845,10 +1830,10 @@
         <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1848,13 @@
         <v>1693412</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>1554</v>
@@ -1878,13 +1863,13 @@
         <v>1587673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>3203</v>
@@ -1893,18 +1878,18 @@
         <v>3281086</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1922,7 +1907,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1937,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1952,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1967,13 +1952,13 @@
         <v>1466</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1988,7 +1973,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -2003,7 +1988,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +2003,13 @@
         <v>1841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2039,7 +2024,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2048,13 +2033,13 @@
         <v>2871</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2054,13 @@
         <v>548101</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -2084,10 +2069,10 @@
         <v>474364</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>39</v>
@@ -2099,13 +2084,13 @@
         <v>1022465</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2105,13 @@
         <v>551408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
         <v>452</v>
@@ -2135,13 +2120,13 @@
         <v>476412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>979</v>
@@ -2150,13 +2135,13 @@
         <v>1027820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,13 +2158,13 @@
         <v>5607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2194,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2209,7 +2194,7 @@
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,7 +2215,7 @@
         <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2245,7 +2230,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2254,13 +2239,13 @@
         <v>8843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2275,13 +2260,13 @@
         <v>13194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2290,10 +2275,10 @@
         <v>6265</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>19</v>
@@ -2305,13 +2290,13 @@
         <v>19459</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2311,13 @@
         <v>3250905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>3289</v>
@@ -2341,28 +2326,28 @@
         <v>3369909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>6478</v>
       </c>
       <c r="N22" s="7">
-        <v>6620813</v>
+        <v>6620814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2362,13 @@
         <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>3297</v>
@@ -2392,33 +2377,33 @@
         <v>3379198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2437,7 +2422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F9A7D7-A3A6-41DF-A268-D8FA8BB06D8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455BA0D5-B361-484C-B470-BC3FE584CE81}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2454,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2561,13 +2546,13 @@
         <v>2810</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2591,13 +2576,13 @@
         <v>2810</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2597,13 @@
         <v>5502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2648,7 +2633,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2648,13 @@
         <v>9627</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2693,13 +2678,13 @@
         <v>9627</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2699,13 @@
         <v>956704</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>1247</v>
@@ -2732,10 +2717,10 @@
         <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>2140</v>
@@ -2744,13 +2729,13 @@
         <v>2294501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2750,13 @@
         <v>974643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>1247</v>
@@ -2780,13 +2765,13 @@
         <v>1337796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>2155</v>
@@ -2795,18 +2780,18 @@
         <v>2312440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2818,13 +2803,13 @@
         <v>6072</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2839,7 +2824,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -2854,7 +2839,7 @@
         <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2854,13 @@
         <v>11835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2890,7 +2875,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2899,13 +2884,13 @@
         <v>12837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2905,13 @@
         <v>23946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2935,13 +2920,13 @@
         <v>4123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -2950,13 +2935,13 @@
         <v>28069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,13 +2956,13 @@
         <v>1922104</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>1630</v>
@@ -2986,13 +2971,13 @@
         <v>1752679</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M12" s="7">
         <v>3444</v>
@@ -3001,13 +2986,13 @@
         <v>3674782</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3007,13 @@
         <v>1963957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>1635</v>
@@ -3037,13 +3022,13 @@
         <v>1757803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>3491</v>
@@ -3052,18 +3037,18 @@
         <v>3721760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3081,7 +3066,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3096,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3111,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,7 +3114,7 @@
         <v>135</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>136</v>
@@ -3147,7 +3132,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -3156,13 +3141,13 @@
         <v>3847</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,13 +3162,13 @@
         <v>2186</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3198,7 +3183,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3207,13 +3192,13 @@
         <v>2186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3213,13 @@
         <v>475147</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -3246,10 +3231,10 @@
         <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M17" s="7">
         <v>846</v>
@@ -3258,13 +3243,13 @@
         <v>933778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3264,13 @@
         <v>481181</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
         <v>412</v>
@@ -3294,13 +3279,13 @@
         <v>458631</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>850</v>
@@ -3309,13 +3294,13 @@
         <v>939812</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,10 +3320,10 @@
         <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3362,13 +3347,13 @@
         <v>8882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3368,13 @@
         <v>21184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3404,7 +3389,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3413,13 +3398,13 @@
         <v>22186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3419,13 @@
         <v>35760</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3449,13 +3434,13 @@
         <v>4123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -3464,13 +3449,13 @@
         <v>39882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3485,13 @@
         <v>3549106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>6430</v>
@@ -3536,13 +3521,13 @@
         <v>3419782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>3294</v>
@@ -3551,13 +3536,13 @@
         <v>3554230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>6496</v>
@@ -3566,18 +3551,18 @@
         <v>6974012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3596,7 +3581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5236694C-7DF0-4DCE-9C14-AA7C0A743F03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD13DE1-316A-4248-8DCD-1AE0C6E78628}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3726,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3741,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>27</v>
+        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3750,13 +3735,13 @@
         <v>2199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3774,7 +3759,7 @@
         <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>163</v>
@@ -3801,7 +3786,7 @@
         <v>4003</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>45</v>
@@ -3852,13 +3837,13 @@
         <v>11309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3873,13 +3858,13 @@
         <v>737939</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>891</v>
@@ -3888,10 +3873,10 @@
         <v>993556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -3903,13 +3888,13 @@
         <v>1731495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,13 +3909,13 @@
         <v>754347</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>892</v>
@@ -3939,13 +3924,13 @@
         <v>994660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>1654</v>
@@ -3954,18 +3939,18 @@
         <v>1749007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3983,7 +3968,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4013,7 +3998,7 @@
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,13 +4013,13 @@
         <v>8858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4049,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4061,10 +4046,10 @@
         <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,13 +4064,13 @@
         <v>18547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4094,13 +4079,13 @@
         <v>8104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4109,13 +4094,13 @@
         <v>26651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,13 +4115,13 @@
         <v>2047932</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>1899</v>
@@ -4145,13 +4130,13 @@
         <v>1979255</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M12" s="7">
         <v>3825</v>
@@ -4160,13 +4145,13 @@
         <v>4027187</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,13 +4166,13 @@
         <v>2076385</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>1908</v>
@@ -4196,13 +4181,13 @@
         <v>1988300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>3860</v>
@@ -4211,18 +4196,18 @@
         <v>4064685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4240,7 +4225,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4249,13 +4234,13 @@
         <v>922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4270,7 +4255,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,7 +4276,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4306,7 +4291,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4321,7 +4306,7 @@
         <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4321,13 @@
         <v>3920</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4351,13 +4336,13 @@
         <v>5817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4366,13 +4351,13 @@
         <v>9736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4372,13 @@
         <v>542966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>520</v>
@@ -4408,7 +4393,7 @@
         <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>1018</v>
@@ -4417,13 +4402,13 @@
         <v>1085368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,13 +4423,13 @@
         <v>546886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -4453,13 +4438,13 @@
         <v>549140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>1027</v>
@@ -4468,13 +4453,13 @@
         <v>1096026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,7 +4482,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4512,7 +4497,7 @@
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4527,7 +4512,7 @@
         <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4542,13 +4527,13 @@
         <v>12861</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4563,7 +4548,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -4572,13 +4557,13 @@
         <v>13802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>23</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4578,13 @@
         <v>33776</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -4608,13 +4593,13 @@
         <v>13921</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4623,13 +4608,13 @@
         <v>47696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,13 +4629,13 @@
         <v>3328838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>3310</v>
@@ -4662,10 +4647,10 @@
         <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>6481</v>
@@ -4674,13 +4659,13 @@
         <v>6844050</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4695,13 +4680,13 @@
         <v>3377618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>3326</v>
@@ -4710,13 +4695,13 @@
         <v>3532100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>6541</v>
@@ -4725,18 +4710,18 @@
         <v>6909718</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4755,7 +4740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F8B4294-EC95-4289-A391-FCA88542E816}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99110AF-546A-422F-9424-4EA144E2BCB4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4772,7 +4757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4879,13 +4864,13 @@
         <v>6643</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4894,13 +4879,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4909,13 +4894,13 @@
         <v>7545</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4930,13 +4915,13 @@
         <v>3270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4951,7 +4936,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4960,13 +4945,13 @@
         <v>3270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,13 +4966,13 @@
         <v>4386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5002,7 +4987,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5011,13 +4996,13 @@
         <v>4386</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5017,13 @@
         <v>240413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
@@ -5047,10 +5032,10 @@
         <v>73516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -5062,13 +5047,13 @@
         <v>313929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5068,13 @@
         <v>254711</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -5098,13 +5083,13 @@
         <v>74419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M8" s="7">
         <v>437</v>
@@ -5113,18 +5098,18 @@
         <v>329130</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5136,13 +5121,13 @@
         <v>4026</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5151,13 +5136,13 @@
         <v>8804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5166,13 +5151,13 @@
         <v>12829</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5172,13 @@
         <v>3446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5208,7 +5193,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5217,13 +5202,13 @@
         <v>4173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5223,13 @@
         <v>4968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5259,7 +5244,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5268,13 +5253,13 @@
         <v>5665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,13 +5274,13 @@
         <v>988306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H12" s="7">
         <v>702</v>
@@ -5304,13 +5289,13 @@
         <v>640674</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>100</v>
       </c>
       <c r="M12" s="7">
         <v>1601</v>
@@ -5319,13 +5304,13 @@
         <v>1628981</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5325,13 @@
         <v>1000746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H13" s="7">
         <v>713</v>
@@ -5355,13 +5340,13 @@
         <v>650901</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>1626</v>
@@ -5370,18 +5355,18 @@
         <v>1651648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5399,7 +5384,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>245</v>
+        <v>108</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5414,7 +5399,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5423,13 +5408,13 @@
         <v>2379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,13 +5429,13 @@
         <v>3519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>244</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5459,13 +5444,13 @@
         <v>1647</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>45</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -5474,13 +5459,13 @@
         <v>5166</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5495,13 +5480,13 @@
         <v>3435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5510,13 +5495,13 @@
         <v>1493</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5525,13 +5510,13 @@
         <v>4927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5531,13 @@
         <v>340408</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>347</v>
@@ -5561,13 +5546,13 @@
         <v>252466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
         <v>681</v>
@@ -5576,13 +5561,13 @@
         <v>592874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5582,13 @@
         <v>349208</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -5612,13 +5597,13 @@
         <v>256138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M18" s="7">
         <v>699</v>
@@ -5627,13 +5612,13 @@
         <v>605346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5635,13 @@
         <v>12515</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>177</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5665,13 +5650,13 @@
         <v>10238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5680,13 +5665,13 @@
         <v>22754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5686,13 @@
         <v>10234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5719,10 +5704,10 @@
         <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -5731,13 +5716,13 @@
         <v>12608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,10 +5740,10 @@
         <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>174</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5773,7 +5758,7 @@
         <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>267</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -5782,13 +5767,13 @@
         <v>14978</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5788,13 @@
         <v>1569127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>1170</v>
@@ -5818,13 +5803,13 @@
         <v>966656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>2700</v>
@@ -5833,13 +5818,13 @@
         <v>2535784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5839,13 @@
         <v>1604666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H23" s="7">
         <v>1189</v>
@@ -5869,13 +5854,13 @@
         <v>981458</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M23" s="7">
         <v>2762</v>
@@ -5884,18 +5869,18 @@
         <v>2586124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D65C52B3-788B-4E16-83E6-059AE732B620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B751FE-35D8-481F-A04F-874042B49ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B569CCCF-D1C2-449E-876D-D39B3808F585}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C389548-7868-44D7-B4DD-A7E52CAB8546}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="265">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,757 +77,739 @@
     <t>0,37%</t>
   </si>
   <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Consumo perjudicial</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
     <t>0,1%</t>
   </si>
   <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>Consumo perjudicial</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
     <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
   </si>
   <si>
     <t>97,79%</t>
@@ -1263,7 +1245,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BDD9F7-8323-47B2-9093-A80C5008FDA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC90D40C-C127-4664-9BF2-70B7DEED2C7D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1576,7 +1558,7 @@
         <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1591,13 +1573,13 @@
         <v>1031723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1291</v>
@@ -1606,13 +1588,13 @@
         <v>1315113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>2329</v>
@@ -1621,18 +1603,18 @@
         <v>2346836</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1644,13 +1626,13 @@
         <v>1742</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1659,7 +1641,7 @@
         <v>1018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
@@ -1698,10 +1680,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1710,13 +1692,13 @@
         <v>988</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1728,10 +1710,10 @@
         <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,13 +1728,13 @@
         <v>9229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1761,13 +1743,13 @@
         <v>2119</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -1794,7 +1776,7 @@
         <v>1635</v>
       </c>
       <c r="D12" s="7">
-        <v>1679710</v>
+        <v>1679711</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>61</v>
@@ -1830,10 +1812,10 @@
         <v>67</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,16 +1827,16 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>1554</v>
@@ -1863,13 +1845,13 @@
         <v>1587673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>3203</v>
@@ -1878,18 +1860,18 @@
         <v>3281086</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1907,7 +1889,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1922,7 +1904,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1937,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,13 +1934,13 @@
         <v>1466</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -1973,7 +1955,7 @@
         <v>14</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M15" s="7">
         <v>2</v>
@@ -1988,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,13 +1985,13 @@
         <v>1841</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2024,7 +2006,7 @@
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2033,13 +2015,13 @@
         <v>2871</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,13 +2036,13 @@
         <v>548101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -2069,10 +2051,10 @@
         <v>474364</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>39</v>
@@ -2084,13 +2066,13 @@
         <v>1022465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2105,13 +2087,13 @@
         <v>551408</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7">
         <v>452</v>
@@ -2120,13 +2102,13 @@
         <v>476412</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>979</v>
@@ -2135,13 +2117,13 @@
         <v>1027820</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2140,13 @@
         <v>5607</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2173,7 +2155,7 @@
         <v>1018</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
@@ -2188,13 +2170,13 @@
         <v>6625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,10 +2194,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2224,13 +2206,13 @@
         <v>2006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2239,13 +2221,13 @@
         <v>8843</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2260,13 +2242,13 @@
         <v>13194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2275,13 +2257,13 @@
         <v>6265</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -2290,13 +2272,13 @@
         <v>19459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,16 +2290,16 @@
         <v>3189</v>
       </c>
       <c r="D22" s="7">
-        <v>3250905</v>
+        <v>3250904</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>3289</v>
@@ -2326,13 +2308,13 @@
         <v>3369909</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>6478</v>
@@ -2341,13 +2323,13 @@
         <v>6620814</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,16 +2341,16 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>3297</v>
@@ -2377,13 +2359,13 @@
         <v>3379198</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
         <v>6511</v>
@@ -2392,18 +2374,18 @@
         <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455BA0D5-B361-484C-B470-BC3FE584CE81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74528763-92EA-49F7-8A76-D3E2E3AD581E}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2439,7 +2421,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2546,13 +2528,13 @@
         <v>2810</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2576,13 +2558,13 @@
         <v>2810</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2579,13 @@
         <v>5502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2633,7 +2615,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2630,13 @@
         <v>9627</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2678,13 +2660,13 @@
         <v>9627</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2681,13 @@
         <v>956704</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>1247</v>
@@ -2717,10 +2699,10 @@
         <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>2140</v>
@@ -2729,13 +2711,13 @@
         <v>2294501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2732,13 @@
         <v>974643</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>1247</v>
@@ -2765,13 +2747,13 @@
         <v>1337796</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>2155</v>
@@ -2780,18 +2762,18 @@
         <v>2312440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2803,13 +2785,13 @@
         <v>6072</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2824,7 +2806,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -2836,10 +2818,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2836,13 @@
         <v>11835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2869,13 +2851,13 @@
         <v>1002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2884,13 +2866,13 @@
         <v>12837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2905,13 +2887,13 @@
         <v>23946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2920,13 +2902,13 @@
         <v>4123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -2935,13 +2917,13 @@
         <v>28069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2938,13 @@
         <v>1922104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H12" s="7">
         <v>1630</v>
@@ -2971,13 +2953,13 @@
         <v>1752679</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M12" s="7">
         <v>3444</v>
@@ -2986,13 +2968,13 @@
         <v>3674782</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2989,13 @@
         <v>1963957</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>1635</v>
@@ -3022,13 +3004,13 @@
         <v>1757803</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>3491</v>
@@ -3037,18 +3019,18 @@
         <v>3721760</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3066,7 +3048,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3081,7 +3063,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3096,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3093,13 @@
         <v>3847</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3132,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -3141,13 +3123,13 @@
         <v>3847</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,13 +3144,13 @@
         <v>2186</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3183,7 +3165,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3192,13 +3174,13 @@
         <v>2186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3213,13 +3195,13 @@
         <v>475147</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -3234,7 +3216,7 @@
         <v>144</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M17" s="7">
         <v>846</v>
@@ -3243,13 +3225,13 @@
         <v>933778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3246,13 @@
         <v>481181</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7">
         <v>412</v>
@@ -3279,13 +3261,13 @@
         <v>458631</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>850</v>
@@ -3294,13 +3276,13 @@
         <v>939812</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,10 +3302,10 @@
         <v>21</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3338,7 +3320,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3347,13 +3329,13 @@
         <v>8882</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,13 +3350,13 @@
         <v>21184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3383,13 +3365,13 @@
         <v>1002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3401,10 +3383,10 @@
         <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3401,13 @@
         <v>35760</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3434,13 +3416,13 @@
         <v>4123</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -3449,13 +3431,13 @@
         <v>39882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3452,13 @@
         <v>3353956</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>3289</v>
@@ -3485,10 +3467,10 @@
         <v>3549106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>66</v>
@@ -3500,13 +3482,13 @@
         <v>6903062</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3503,13 @@
         <v>3419782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>3294</v>
@@ -3536,13 +3518,13 @@
         <v>3554230</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
         <v>6496</v>
@@ -3551,18 +3533,18 @@
         <v>6974012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3581,7 +3563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD13DE1-316A-4248-8DCD-1AE0C6E78628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E0BA66-6745-41FF-85ED-B3BE545A01B8}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3598,7 +3580,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3711,7 +3693,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3726,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3735,13 +3717,13 @@
         <v>2199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3738,13 @@
         <v>4003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3786,13 +3768,13 @@
         <v>4003</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,13 +3789,13 @@
         <v>11309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3837,13 +3819,13 @@
         <v>11309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3840,13 @@
         <v>737939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>891</v>
@@ -3873,10 +3855,10 @@
         <v>993556</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -3888,13 +3870,13 @@
         <v>1731495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3891,13 @@
         <v>754347</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>892</v>
@@ -3924,13 +3906,13 @@
         <v>994660</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>1654</v>
@@ -3939,18 +3921,18 @@
         <v>1749007</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3962,13 +3944,13 @@
         <v>1048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3983,7 +3965,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3992,13 +3974,13 @@
         <v>1048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +3995,13 @@
         <v>8858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4028,7 +4010,7 @@
         <v>941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
@@ -4046,10 +4028,10 @@
         <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4046,13 @@
         <v>18547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4079,13 +4061,13 @@
         <v>8104</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4094,13 +4076,13 @@
         <v>26651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,13 +4097,13 @@
         <v>2047932</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H12" s="7">
         <v>1899</v>
@@ -4130,13 +4112,13 @@
         <v>1979255</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="M12" s="7">
         <v>3825</v>
@@ -4145,13 +4127,13 @@
         <v>4027187</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4148,13 @@
         <v>2076385</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>1908</v>
@@ -4181,13 +4163,13 @@
         <v>1988300</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>3860</v>
@@ -4196,18 +4178,18 @@
         <v>4064685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4225,7 +4207,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4234,13 +4216,13 @@
         <v>922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4255,7 +4237,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4258,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4291,7 +4273,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -4306,7 +4288,7 @@
         <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4303,13 @@
         <v>3920</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4336,13 +4318,13 @@
         <v>5817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4351,13 +4333,13 @@
         <v>9736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4354,13 @@
         <v>542966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>520</v>
@@ -4387,13 +4369,13 @@
         <v>542401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>1018</v>
@@ -4402,13 +4384,13 @@
         <v>1085368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4405,13 @@
         <v>546886</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7">
         <v>526</v>
@@ -4438,13 +4420,13 @@
         <v>549140</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>1027</v>
@@ -4453,13 +4435,13 @@
         <v>1096026</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4458,13 @@
         <v>2143</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -4491,13 +4473,13 @@
         <v>2026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4506,13 +4488,13 @@
         <v>4170</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4509,13 @@
         <v>12861</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4542,13 +4524,13 @@
         <v>941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -4557,13 +4539,13 @@
         <v>13802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4560,13 @@
         <v>33776</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>199</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -4593,13 +4575,13 @@
         <v>13921</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4608,13 +4590,13 @@
         <v>47696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4611,13 @@
         <v>3328838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="H22" s="7">
         <v>3310</v>
@@ -4644,13 +4626,13 @@
         <v>3515212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>6481</v>
@@ -4659,13 +4641,13 @@
         <v>6844050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4662,13 @@
         <v>3377618</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>3326</v>
@@ -4695,13 +4677,13 @@
         <v>3532100</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
         <v>6541</v>
@@ -4710,18 +4692,18 @@
         <v>6909718</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4740,7 +4722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99110AF-546A-422F-9424-4EA144E2BCB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E181336-1CEB-4CB4-ADE1-A97C188711FB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4757,7 +4739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4864,13 +4846,13 @@
         <v>6643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4879,13 +4861,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4894,13 +4876,13 @@
         <v>7545</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,13 +4897,13 @@
         <v>3270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4936,7 +4918,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4945,13 +4927,13 @@
         <v>3270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4966,13 +4948,13 @@
         <v>4386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4987,7 +4969,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4996,13 +4978,13 @@
         <v>4386</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5017,13 +4999,13 @@
         <v>240413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
@@ -5032,10 +5014,10 @@
         <v>73516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -5047,13 +5029,13 @@
         <v>313929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>231</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,13 +5050,13 @@
         <v>254711</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>123</v>
@@ -5083,13 +5065,13 @@
         <v>74419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M8" s="7">
         <v>437</v>
@@ -5098,18 +5080,18 @@
         <v>329130</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5121,13 +5103,13 @@
         <v>4026</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>149</v>
+        <v>223</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5136,13 +5118,13 @@
         <v>8804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5151,13 +5133,13 @@
         <v>12829</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5154,13 @@
         <v>3446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5193,7 +5175,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5202,13 +5184,13 @@
         <v>4173</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>236</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5205,13 @@
         <v>4968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>124</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5244,7 +5226,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5253,13 +5235,13 @@
         <v>5665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5256,13 @@
         <v>988306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="H12" s="7">
         <v>702</v>
@@ -5289,13 +5271,13 @@
         <v>640674</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="M12" s="7">
         <v>1601</v>
@@ -5304,13 +5286,13 @@
         <v>1628981</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5307,13 @@
         <v>1000746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H13" s="7">
         <v>713</v>
@@ -5340,13 +5322,13 @@
         <v>650901</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M13" s="7">
         <v>1626</v>
@@ -5355,18 +5337,18 @@
         <v>1651648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5378,13 +5360,13 @@
         <v>1847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>108</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5399,7 +5381,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>141</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5408,13 +5390,13 @@
         <v>2379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5411,13 @@
         <v>3519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5444,13 +5426,13 @@
         <v>1647</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -5459,13 +5441,13 @@
         <v>5166</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,13 +5462,13 @@
         <v>3435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5495,13 +5477,13 @@
         <v>1493</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5510,13 +5492,13 @@
         <v>4927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5513,13 @@
         <v>340408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>347</v>
@@ -5546,13 +5528,13 @@
         <v>252466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>681</v>
@@ -5561,13 +5543,13 @@
         <v>592874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5564,13 @@
         <v>349208</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
@@ -5597,13 +5579,13 @@
         <v>256138</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M18" s="7">
         <v>699</v>
@@ -5612,13 +5594,13 @@
         <v>605346</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5635,13 +5617,13 @@
         <v>12515</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5650,13 +5632,13 @@
         <v>10238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>258</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5665,13 +5647,13 @@
         <v>22754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>119</v>
+        <v>251</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5686,13 +5668,13 @@
         <v>10234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5704,10 +5686,10 @@
         <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -5716,13 +5698,13 @@
         <v>12608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5719,13 @@
         <v>12789</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5755,10 +5737,10 @@
         <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -5767,13 +5749,13 @@
         <v>14978</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5770,13 @@
         <v>1569127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>1170</v>
@@ -5803,13 +5785,13 @@
         <v>966656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>2700</v>
@@ -5818,13 +5800,13 @@
         <v>2535784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5821,13 @@
         <v>1604666</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="7">
         <v>1189</v>
@@ -5854,13 +5836,13 @@
         <v>981458</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M23" s="7">
         <v>2762</v>
@@ -5869,18 +5851,18 @@
         <v>2586124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Cage-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B751FE-35D8-481F-A04F-874042B49ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C5EBA3-E10A-4A65-9859-901E107857D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C389548-7868-44D7-B4DD-A7E52CAB8546}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FAF4BEB-B44B-47CA-96F0-16AEEA17079A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="276">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,760 +77,793 @@
     <t>0,37%</t>
   </si>
   <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>Consumo perjudicial</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>Consumo riesgo</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>Beberdor social</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>0,09%</t>
   </si>
   <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>Consumo perjudicial</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>Consumo riesgo</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>Beberdor social</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>1,18%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>97,79%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>98,49%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
     <t>98,05%</t>
   </si>
   <si>
-    <t>97,42%</t>
+    <t>97,34%</t>
   </si>
   <si>
     <t>98,58%</t>
@@ -1245,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC90D40C-C127-4664-9BF2-70B7DEED2C7D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532409E2-AB91-45A7-900E-6718D45F6E8F}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1626,13 +1659,13 @@
         <v>1742</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -1641,7 +1674,7 @@
         <v>1018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>14</v>
@@ -1680,10 +1713,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1692,13 +1725,13 @@
         <v>988</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1710,10 +1743,10 @@
         <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,7 +1761,7 @@
         <v>9229</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>55</v>
@@ -1749,7 +1782,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>11</v>
@@ -1758,13 +1791,13 @@
         <v>11348</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1776,16 +1809,16 @@
         <v>1635</v>
       </c>
       <c r="D12" s="7">
-        <v>1679711</v>
+        <v>1679710</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" s="7">
         <v>1550</v>
@@ -1794,7 +1827,7 @@
         <v>1583548</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>65</v>
@@ -1827,7 +1860,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>43</v>
@@ -2015,13 +2048,13 @@
         <v>2871</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,13 +2069,13 @@
         <v>548101</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>450</v>
@@ -2051,10 +2084,10 @@
         <v>474364</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>39</v>
@@ -2066,13 +2099,13 @@
         <v>1022465</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,13 +2173,13 @@
         <v>5607</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2155,13 +2188,13 @@
         <v>1018</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7">
         <v>7</v>
@@ -2170,13 +2203,13 @@
         <v>6625</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,10 +2227,10 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -2206,13 +2239,13 @@
         <v>2006</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2224,10 +2257,10 @@
         <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2275,13 @@
         <v>13194</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2257,13 +2290,13 @@
         <v>6265</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -2272,13 +2305,13 @@
         <v>19459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2290,16 +2323,16 @@
         <v>3189</v>
       </c>
       <c r="D22" s="7">
-        <v>3250904</v>
+        <v>3250905</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>3289</v>
@@ -2308,10 +2341,10 @@
         <v>3369909</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>102</v>
@@ -2320,16 +2353,16 @@
         <v>6478</v>
       </c>
       <c r="N22" s="7">
-        <v>6620814</v>
+        <v>6620813</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,7 +2374,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>43</v>
@@ -2371,7 +2404,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>43</v>
@@ -2404,7 +2437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74528763-92EA-49F7-8A76-D3E2E3AD581E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D06A1-18A5-4C09-82BC-FCCD130F5B49}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2528,10 +2561,10 @@
         <v>2810</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>106</v>
@@ -2561,10 +2594,10 @@
         <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2579,13 +2612,13 @@
         <v>5502</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2615,7 +2648,7 @@
         <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,10 +2663,10 @@
         <v>9627</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>113</v>
@@ -2666,7 +2699,7 @@
         <v>73</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,7 +2732,7 @@
         <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>43</v>
@@ -2711,7 +2744,7 @@
         <v>2294501</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>117</v>
@@ -2785,13 +2818,13 @@
         <v>6072</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2818,10 +2851,10 @@
         <v>17</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,10 +2872,10 @@
         <v>120</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2851,13 +2884,13 @@
         <v>1002</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -2866,13 +2899,13 @@
         <v>12837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2887,13 +2920,13 @@
         <v>23946</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2902,13 +2935,13 @@
         <v>4123</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -2917,13 +2950,13 @@
         <v>28069</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,13 +2971,13 @@
         <v>1922104</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>1630</v>
@@ -2953,10 +2986,10 @@
         <v>1752679</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>132</v>
@@ -2971,10 +3004,10 @@
         <v>133</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3063,7 +3096,7 @@
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3078,7 +3111,7 @@
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3093,13 +3126,13 @@
         <v>3847</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3114,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
@@ -3126,10 +3159,10 @@
         <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,7 +3177,7 @@
         <v>2186</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>14</v>
@@ -3165,7 +3198,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -3174,7 +3207,7 @@
         <v>2186</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>14</v>
@@ -3201,7 +3234,7 @@
         <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>412</v>
@@ -3213,7 +3246,7 @@
         <v>39</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>43</v>
@@ -3225,13 +3258,13 @@
         <v>933778</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,7 +3338,7 @@
         <v>57</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3320,7 +3353,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3332,10 +3365,10 @@
         <v>57</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3350,13 +3383,13 @@
         <v>21184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3365,13 +3398,13 @@
         <v>1002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3380,13 +3413,13 @@
         <v>22186</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>60</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3434,13 @@
         <v>35760</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3419,10 +3452,10 @@
         <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>37</v>
@@ -3431,13 +3464,13 @@
         <v>39882</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3485,13 @@
         <v>3353956</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>3289</v>
@@ -3467,13 +3500,13 @@
         <v>3549106</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M22" s="7">
         <v>6430</v>
@@ -3482,13 +3515,13 @@
         <v>6903062</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,7 +3596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E0BA66-6745-41FF-85ED-B3BE545A01B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A844F-039E-4B4D-82EC-AD1597F7C432}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3580,7 +3613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3693,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3708,7 +3741,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -3723,7 +3756,7 @@
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3771,13 @@
         <v>4003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>57</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3768,13 +3801,13 @@
         <v>4003</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3822,13 @@
         <v>11309</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3819,13 +3852,13 @@
         <v>11309</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3840,13 +3873,13 @@
         <v>737939</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>891</v>
@@ -3858,7 +3891,7 @@
         <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>100</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -3870,13 +3903,13 @@
         <v>1731495</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3977,13 @@
         <v>1048</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3965,7 +3998,7 @@
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -3974,13 +4007,13 @@
         <v>1048</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +4028,13 @@
         <v>8858</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -4010,13 +4043,13 @@
         <v>941</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4028,10 +4061,10 @@
         <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4079,13 @@
         <v>18547</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -4064,10 +4097,10 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -4076,13 +4109,13 @@
         <v>26651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4130,13 @@
         <v>2047932</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7">
         <v>1899</v>
@@ -4112,13 +4145,13 @@
         <v>1979255</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="M12" s="7">
         <v>3825</v>
@@ -4127,13 +4160,13 @@
         <v>4027187</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4240,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4216,13 +4249,13 @@
         <v>922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -4258,7 +4291,7 @@
         <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4288,7 +4321,7 @@
         <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4336,13 @@
         <v>3920</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4318,13 +4351,13 @@
         <v>5817</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -4333,13 +4366,13 @@
         <v>9736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4387,13 @@
         <v>542966</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>520</v>
@@ -4369,13 +4402,13 @@
         <v>542401</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>1018</v>
@@ -4384,13 +4417,13 @@
         <v>1085368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,7 +4491,7 @@
         <v>2143</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>14</v>
@@ -4473,7 +4506,7 @@
         <v>2026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>14</v>
@@ -4488,13 +4521,13 @@
         <v>4170</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>48</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4542,13 @@
         <v>12861</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4524,13 +4557,13 @@
         <v>941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -4545,7 +4578,7 @@
         <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,13 +4593,13 @@
         <v>33776</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -4575,13 +4608,13 @@
         <v>13921</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="M21" s="7">
         <v>43</v>
@@ -4590,13 +4623,13 @@
         <v>47696</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4644,13 @@
         <v>3328838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>3310</v>
@@ -4626,13 +4659,13 @@
         <v>3515212</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="M22" s="7">
         <v>6481</v>
@@ -4641,13 +4674,13 @@
         <v>6844050</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>198</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,7 +4755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E181336-1CEB-4CB4-ADE1-A97C188711FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98296239-6397-43F6-B6BB-5FB0996FEB70}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4739,7 +4772,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4846,13 +4879,13 @@
         <v>6643</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4861,13 +4894,13 @@
         <v>903</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -4876,13 +4909,13 @@
         <v>7545</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4930,13 @@
         <v>3270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4918,7 +4951,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -4927,13 +4960,13 @@
         <v>3270</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>52</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4981,13 @@
         <v>4386</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4969,7 +5002,7 @@
         <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -4978,13 +5011,13 @@
         <v>4386</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,13 +5032,13 @@
         <v>240413</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
@@ -5014,10 +5047,10 @@
         <v>73516</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -5029,13 +5062,13 @@
         <v>313929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,13 +5136,13 @@
         <v>4026</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5118,13 +5151,13 @@
         <v>8804</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -5133,13 +5166,13 @@
         <v>12829</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5154,13 +5187,13 @@
         <v>3446</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5175,7 +5208,7 @@
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -5187,10 +5220,10 @@
         <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5238,13 @@
         <v>4968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5226,7 +5259,7 @@
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5235,13 +5268,13 @@
         <v>5665</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>107</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5289,13 @@
         <v>988306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="H12" s="7">
         <v>702</v>
@@ -5271,13 +5304,13 @@
         <v>640674</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>38</v>
+        <v>244</v>
       </c>
       <c r="M12" s="7">
         <v>1601</v>
@@ -5286,13 +5319,13 @@
         <v>1628981</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>234</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5393,13 @@
         <v>1847</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -5381,7 +5414,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -5390,13 +5423,13 @@
         <v>2379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5444,13 @@
         <v>3519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>236</v>
+        <v>22</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5426,13 +5459,13 @@
         <v>1647</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
@@ -5441,13 +5474,13 @@
         <v>5166</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,13 +5495,13 @@
         <v>3435</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>174</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5477,13 +5510,13 @@
         <v>1493</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5492,13 +5525,13 @@
         <v>4927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5513,13 +5546,13 @@
         <v>340408</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>347</v>
@@ -5528,13 +5561,13 @@
         <v>252466</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>681</v>
@@ -5543,13 +5576,13 @@
         <v>592874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,13 +5650,13 @@
         <v>12515</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -5632,13 +5665,13 @@
         <v>10238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>51</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
@@ -5647,13 +5680,13 @@
         <v>22754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5668,13 +5701,13 @@
         <v>10234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5686,10 +5719,10 @@
         <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -5698,13 +5731,13 @@
         <v>12608</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,13 +5752,13 @@
         <v>12789</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -5737,10 +5770,10 @@
         <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
@@ -5749,13 +5782,13 @@
         <v>14978</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>241</v>
+        <v>164</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5803,13 @@
         <v>1569127</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>1170</v>
@@ -5785,13 +5818,13 @@
         <v>966656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>261</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>62</v>
       </c>
       <c r="M22" s="7">
         <v>2700</v>
@@ -5800,13 +5833,13 @@
         <v>2535784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Cage-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Cage-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{63C5EBA3-E10A-4A65-9859-901E107857D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75784549-C33F-49BB-B6F4-356FF6F34B4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FAF4BEB-B44B-47CA-96F0-16AEEA17079A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9C80C490-A024-41A3-B807-6075F5F26CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="272">
   <si>
     <t>Población con sospecha de alcoholismo (CAGE) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -677,31 +677,31 @@
     <t>Población con sospecha de alcoholismo (CAGE) en 2023 (Tasa respuesta: 31,73%)</t>
   </si>
   <si>
-    <t>2,61%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>4,12%</t>
+    <t>4,16%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>3,03%</t>
+    <t>3,02%</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -710,163 +710,151 @@
     <t>0,3%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>1,19%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532409E2-AB91-45A7-900E-6718D45F6E8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4392182F-B6E4-41E8-A0A0-D5B338F55859}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1582,7 +1570,7 @@
         <v>2319</v>
       </c>
       <c r="N7" s="7">
-        <v>2335090</v>
+        <v>2335089</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1633,7 +1621,7 @@
         <v>2329</v>
       </c>
       <c r="N8" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -1809,7 +1797,7 @@
         <v>1635</v>
       </c>
       <c r="D12" s="7">
-        <v>1679710</v>
+        <v>1679711</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>62</v>
@@ -1860,7 +1848,7 @@
         <v>1649</v>
       </c>
       <c r="D13" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>43</v>
@@ -2323,7 +2311,7 @@
         <v>3189</v>
       </c>
       <c r="D22" s="7">
-        <v>3250905</v>
+        <v>3250904</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>97</v>
@@ -2338,7 +2326,7 @@
         <v>3289</v>
       </c>
       <c r="I22" s="7">
-        <v>3369909</v>
+        <v>3369908</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>100</v>
@@ -2353,7 +2341,7 @@
         <v>6478</v>
       </c>
       <c r="N22" s="7">
-        <v>6620813</v>
+        <v>6620814</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>86</v>
@@ -2374,7 +2362,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>43</v>
@@ -2389,7 +2377,7 @@
         <v>3297</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>43</v>
@@ -2404,7 +2392,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>43</v>
@@ -2437,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F70D06A1-18A5-4C09-82BC-FCCD130F5B49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813D0DBD-B4E2-4489-98A3-C3169477AB45}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2726,7 +2714,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -2777,7 +2765,7 @@
         <v>1247</v>
       </c>
       <c r="I8" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -3255,7 +3243,7 @@
         <v>846</v>
       </c>
       <c r="N17" s="7">
-        <v>933778</v>
+        <v>933779</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>65</v>
@@ -3306,7 +3294,7 @@
         <v>850</v>
       </c>
       <c r="N18" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>43</v>
@@ -3596,7 +3584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A844F-039E-4B4D-82EC-AD1597F7C432}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADB2B65-2CFC-4522-8AB4-51C97C10D185}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4414,7 +4402,7 @@
         <v>1018</v>
       </c>
       <c r="N17" s="7">
-        <v>1085368</v>
+        <v>1085369</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>134</v>
@@ -4465,7 +4453,7 @@
         <v>1027</v>
       </c>
       <c r="N18" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>43</v>
@@ -4755,7 +4743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98296239-6397-43F6-B6BB-5FB0996FEB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5956985F-4501-4EC5-95E3-E820B33975EB}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4876,25 +4864,25 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>6643</v>
+        <v>6300</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>903</v>
+        <v>854</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>214</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>14</v>
@@ -4906,7 +4894,7 @@
         <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>7545</v>
+        <v>7154</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>216</v>
@@ -4927,7 +4915,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3270</v>
+        <v>3102</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>219</v>
@@ -4957,10 +4945,10 @@
         <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>3270</v>
+        <v>3102</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>111</v>
+        <v>198</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>222</v>
@@ -4978,16 +4966,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>4386</v>
+        <v>4950</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>148</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5008,16 +4996,16 @@
         <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>4386</v>
+        <v>4950</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,28 +5017,28 @@
         <v>297</v>
       </c>
       <c r="D7" s="7">
-        <v>240413</v>
+        <v>228904</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>121</v>
       </c>
       <c r="I7" s="7">
-        <v>73516</v>
+        <v>66479</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>39</v>
@@ -5059,16 +5047,16 @@
         <v>418</v>
       </c>
       <c r="N7" s="7">
-        <v>313929</v>
+        <v>295383</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,7 +5068,7 @@
         <v>314</v>
       </c>
       <c r="D8" s="7">
-        <v>254711</v>
+        <v>243256</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>43</v>
@@ -5095,7 +5083,7 @@
         <v>123</v>
       </c>
       <c r="I8" s="7">
-        <v>74419</v>
+        <v>67333</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -5110,7 +5098,7 @@
         <v>437</v>
       </c>
       <c r="N8" s="7">
-        <v>329130</v>
+        <v>310589</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>43</v>
@@ -5133,46 +5121,46 @@
         <v>5</v>
       </c>
       <c r="D9" s="7">
-        <v>4026</v>
+        <v>3717</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>177</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>8804</v>
+        <v>7900</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
       </c>
       <c r="N9" s="7">
-        <v>12829</v>
+        <v>11617</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,46 +5172,46 @@
         <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>3446</v>
+        <v>3577</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>727</v>
+        <v>665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>4173</v>
+        <v>4242</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,46 +5223,46 @@
         <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>4968</v>
+        <v>5278</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>696</v>
+        <v>629</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
       </c>
       <c r="N11" s="7">
-        <v>5665</v>
+        <v>5907</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>151</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,46 +5274,46 @@
         <v>899</v>
       </c>
       <c r="D12" s="7">
-        <v>988306</v>
+        <v>968503</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>241</v>
+        <v>188</v>
       </c>
       <c r="H12" s="7">
         <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>640674</v>
+        <v>695142</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>242</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="M12" s="7">
         <v>1601</v>
       </c>
       <c r="N12" s="7">
-        <v>1628981</v>
+        <v>1663644</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>34</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,7 +5325,7 @@
         <v>913</v>
       </c>
       <c r="D13" s="7">
-        <v>1000746</v>
+        <v>981075</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>43</v>
@@ -5352,7 +5340,7 @@
         <v>713</v>
       </c>
       <c r="I13" s="7">
-        <v>650901</v>
+        <v>704336</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>43</v>
@@ -5367,7 +5355,7 @@
         <v>1626</v>
       </c>
       <c r="N13" s="7">
-        <v>1651648</v>
+        <v>1685410</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>43</v>
@@ -5390,10 +5378,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>1847</v>
+        <v>1775</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
@@ -5405,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>26</v>
@@ -5414,13 +5402,13 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>2379</v>
+        <v>2273</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>200</v>
@@ -5429,7 +5417,7 @@
         <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,46 +5429,46 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>3519</v>
+        <v>3351</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>147</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>246</v>
+        <v>167</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>1647</v>
+        <v>1488</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M15" s="7">
         <v>7</v>
       </c>
       <c r="N15" s="7">
-        <v>5166</v>
+        <v>4839</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,46 +5480,46 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3435</v>
+        <v>3255</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1493</v>
+        <v>1325</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>4927</v>
+        <v>4580</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>222</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,46 +5531,46 @@
         <v>334</v>
       </c>
       <c r="D17" s="7">
-        <v>340408</v>
+        <v>334558</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>347</v>
       </c>
       <c r="I17" s="7">
-        <v>252466</v>
+        <v>237875</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>681</v>
       </c>
       <c r="N17" s="7">
-        <v>592874</v>
+        <v>572433</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,7 +5582,7 @@
         <v>346</v>
       </c>
       <c r="D18" s="7">
-        <v>349208</v>
+        <v>342940</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>43</v>
@@ -5609,7 +5597,7 @@
         <v>353</v>
       </c>
       <c r="I18" s="7">
-        <v>256138</v>
+        <v>241186</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>43</v>
@@ -5624,7 +5612,7 @@
         <v>699</v>
       </c>
       <c r="N18" s="7">
-        <v>605346</v>
+        <v>584126</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>43</v>
@@ -5647,46 +5635,46 @@
         <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>12515</v>
+        <v>11792</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>238</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>123</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>10238</v>
+        <v>9252</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>28</v>
       </c>
       <c r="N19" s="7">
-        <v>22754</v>
+        <v>21044</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,46 +5686,46 @@
         <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>10234</v>
+        <v>10030</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>2374</v>
+        <v>2153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
       </c>
       <c r="N20" s="7">
-        <v>12608</v>
+        <v>12183</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,46 +5737,46 @@
         <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>12789</v>
+        <v>13484</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>2189</v>
+        <v>1954</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="M21" s="7">
         <v>18</v>
       </c>
       <c r="N21" s="7">
-        <v>14978</v>
+        <v>15437</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>121</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,46 +5788,46 @@
         <v>1530</v>
       </c>
       <c r="D22" s="7">
-        <v>1569127</v>
+        <v>1531964</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>1170</v>
       </c>
       <c r="I22" s="7">
-        <v>966656</v>
+        <v>999496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>117</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>194</v>
+        <v>270</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
       <c r="M22" s="7">
         <v>2700</v>
       </c>
       <c r="N22" s="7">
-        <v>2535784</v>
+        <v>2531461</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,7 +5839,7 @@
         <v>1573</v>
       </c>
       <c r="D23" s="7">
-        <v>1604666</v>
+        <v>1567270</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>43</v>
@@ -5866,7 +5854,7 @@
         <v>1189</v>
       </c>
       <c r="I23" s="7">
-        <v>981458</v>
+        <v>1012855</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>43</v>
@@ -5881,7 +5869,7 @@
         <v>2762</v>
       </c>
       <c r="N23" s="7">
-        <v>2586124</v>
+        <v>2580125</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>43</v>
